--- a/AFS/Sources/Data/BANK_AXIS18294_ALCS/input/AXIS_18294_BANK.xlsx
+++ b/AFS/Sources/Data/BANK_AXIS18294_ALCS/input/AXIS_18294_BANK.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Clients\TeamLease\ALCS Letters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC888EA8-4AFB-492B-BD9C-452C8DB28CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="360" windowWidth="18915" windowHeight="7215"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TransactionSummary_131221102839" sheetId="1" r:id="rId1"/>
@@ -1134,7 +1140,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1671,6 +1677,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1718,7 +1727,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1751,9 +1760,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1786,6 +1812,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1961,36 +2004,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2010,7 +2058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44501</v>
       </c>
@@ -2027,7 +2075,7 @@
         <v>96579187.379999995</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44501</v>
       </c>
@@ -2044,7 +2092,7 @@
         <v>96573137.379999995</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44501</v>
       </c>
@@ -2061,7 +2109,7 @@
         <v>92921514.379999995</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44501</v>
       </c>
@@ -2078,7 +2126,7 @@
         <v>92735656.379999995</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44501</v>
       </c>
@@ -2095,7 +2143,7 @@
         <v>92472813.379999995</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44501</v>
       </c>
@@ -2112,7 +2160,7 @@
         <v>88613483.379999995</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44501</v>
       </c>
@@ -2129,7 +2177,7 @@
         <v>88555875.379999995</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44502</v>
       </c>
@@ -2146,7 +2194,7 @@
         <v>88355714.379999995</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44502</v>
       </c>
@@ -2163,7 +2211,7 @@
         <v>81430494.379999995</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>44502</v>
       </c>
@@ -2180,7 +2228,7 @@
         <v>81171802.379999995</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44502</v>
       </c>
@@ -2197,7 +2245,7 @@
         <v>80774307.379999995</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44502</v>
       </c>
@@ -2214,7 +2262,7 @@
         <v>80769215.379999995</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44502</v>
       </c>
@@ -2231,7 +2279,7 @@
         <v>80523639.379999995</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44502</v>
       </c>
@@ -2248,7 +2296,7 @@
         <v>80430244.379999995</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44502</v>
       </c>
@@ -2265,7 +2313,7 @@
         <v>72831016.379999995</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44503</v>
       </c>
@@ -2282,7 +2330,7 @@
         <v>72811015.379999995</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44503</v>
       </c>
@@ -2299,7 +2347,7 @@
         <v>70473420.379999995</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44503</v>
       </c>
@@ -2316,7 +2364,7 @@
         <v>65047769.380000003</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44503</v>
       </c>
@@ -2333,7 +2381,7 @@
         <v>64852380.380000003</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44503</v>
       </c>
@@ -2350,7 +2398,7 @@
         <v>64812854.380000003</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44503</v>
       </c>
@@ -2367,7 +2415,7 @@
         <v>64797104.380000003</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44503</v>
       </c>
@@ -2384,7 +2432,7 @@
         <v>64605331.380000003</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44503</v>
       </c>
@@ -2401,7 +2449,7 @@
         <v>61655267.380000003</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44503</v>
       </c>
@@ -2418,7 +2466,7 @@
         <v>61519303.380000003</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44503</v>
       </c>
@@ -2435,7 +2483,7 @@
         <v>61088692.380000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44503</v>
       </c>
@@ -2452,7 +2500,7 @@
         <v>61036702.380000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44503</v>
       </c>
@@ -2469,7 +2517,7 @@
         <v>56722681.380000003</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44503</v>
       </c>
@@ -2486,7 +2534,7 @@
         <v>56735058.380000003</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44503</v>
       </c>
@@ -2503,7 +2551,7 @@
         <v>56669711.380000003</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44503</v>
       </c>
@@ -2520,7 +2568,7 @@
         <v>53411174.380000003</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44503</v>
       </c>
@@ -2537,7 +2585,7 @@
         <v>53425623.380000003</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44503</v>
       </c>
@@ -2554,7 +2602,7 @@
         <v>53434164.380000003</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44504</v>
       </c>
@@ -2571,7 +2619,7 @@
         <v>53406745.380000003</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44504</v>
       </c>
@@ -2588,7 +2636,7 @@
         <v>53316922.380000003</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44504</v>
       </c>
@@ -2605,7 +2653,7 @@
         <v>53280510.380000003</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44506</v>
       </c>
@@ -2622,7 +2670,7 @@
         <v>53248962.380000003</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44506</v>
       </c>
@@ -2639,7 +2687,7 @@
         <v>53235371.380000003</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44506</v>
       </c>
@@ -2656,7 +2704,7 @@
         <v>53219131.380000003</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44506</v>
       </c>
@@ -2673,7 +2721,7 @@
         <v>51986877.380000003</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44506</v>
       </c>
@@ -2690,7 +2738,7 @@
         <v>50322493.380000003</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44508</v>
       </c>
@@ -2707,7 +2755,7 @@
         <v>50304576.380000003</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44508</v>
       </c>
@@ -2724,7 +2772,7 @@
         <v>49812266.380000003</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44508</v>
       </c>
@@ -2741,7 +2789,7 @@
         <v>49788412.380000003</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44508</v>
       </c>
@@ -2758,7 +2806,7 @@
         <v>49783787.380000003</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44508</v>
       </c>
@@ -2775,7 +2823,7 @@
         <v>49757292.380000003</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44508</v>
       </c>
@@ -2792,7 +2840,7 @@
         <v>49588351.380000003</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44508</v>
       </c>
@@ -2809,7 +2857,7 @@
         <v>49472241.380000003</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44508</v>
       </c>
@@ -2826,7 +2874,7 @@
         <v>49477912.380000003</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44508</v>
       </c>
@@ -2843,7 +2891,7 @@
         <v>49503834.380000003</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44509</v>
       </c>
@@ -2860,7 +2908,7 @@
         <v>49200368.380000003</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44509</v>
       </c>
@@ -2877,7 +2925,7 @@
         <v>49094817.380000003</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44509</v>
       </c>
@@ -2894,7 +2942,7 @@
         <v>49052846.380000003</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44509</v>
       </c>
@@ -2911,7 +2959,7 @@
         <v>48364097.380000003</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44509</v>
       </c>
@@ -2928,7 +2976,7 @@
         <v>48150345.380000003</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44509</v>
       </c>
@@ -2945,7 +2993,7 @@
         <v>48151238.380000003</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44509</v>
       </c>
@@ -2962,7 +3010,7 @@
         <v>48050670.380000003</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44509</v>
       </c>
@@ -2979,7 +3027,7 @@
         <v>47230319.380000003</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44509</v>
       </c>
@@ -2996,7 +3044,7 @@
         <v>47186824.380000003</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44509</v>
       </c>
@@ -3013,7 +3061,7 @@
         <v>44943026.380000003</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44510</v>
       </c>
@@ -3030,7 +3078,7 @@
         <v>45967786.049999997</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44510</v>
       </c>
@@ -3047,7 +3095,7 @@
         <v>45823133.049999997</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44510</v>
       </c>
@@ -3064,7 +3112,7 @@
         <v>45792850.049999997</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44510</v>
       </c>
@@ -3081,7 +3129,7 @@
         <v>45791910.049999997</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44510</v>
       </c>
@@ -3098,7 +3146,7 @@
         <v>45720465.049999997</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44510</v>
       </c>
@@ -3115,7 +3163,7 @@
         <v>44893187.049999997</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44510</v>
       </c>
@@ -3132,7 +3180,7 @@
         <v>44814525.049999997</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44511</v>
       </c>
@@ -3149,7 +3197,7 @@
         <v>44005175.049999997</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44511</v>
       </c>
@@ -3166,7 +3214,7 @@
         <v>43821562.049999997</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44511</v>
       </c>
@@ -3183,7 +3231,7 @@
         <v>43741800.049999997</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44511</v>
       </c>
@@ -3200,7 +3248,7 @@
         <v>43562638.049999997</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44511</v>
       </c>
@@ -3217,7 +3265,7 @@
         <v>24562627.050000001</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44511</v>
       </c>
@@ -3234,7 +3282,7 @@
         <v>24540533.050000001</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44511</v>
       </c>
@@ -3251,7 +3299,7 @@
         <v>24446082.050000001</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44511</v>
       </c>
@@ -3268,7 +3316,7 @@
         <v>24218878.050000001</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44511</v>
       </c>
@@ -3285,7 +3333,7 @@
         <v>24165510.050000001</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44512</v>
       </c>
@@ -3302,7 +3350,7 @@
         <v>24108186.050000001</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44512</v>
       </c>
@@ -3319,7 +3367,7 @@
         <v>24083658.050000001</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44512</v>
       </c>
@@ -3336,7 +3384,7 @@
         <v>24071820.050000001</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44512</v>
       </c>
@@ -3353,7 +3401,7 @@
         <v>23975176.050000001</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44512</v>
       </c>
@@ -3370,7 +3418,7 @@
         <v>23972476.050000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44513</v>
       </c>
@@ -3387,7 +3435,7 @@
         <v>23948870.050000001</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44513</v>
       </c>
@@ -3404,7 +3452,7 @@
         <v>23914065.050000001</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44515</v>
       </c>
@@ -3421,7 +3469,7 @@
         <v>23912282.050000001</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44515</v>
       </c>
@@ -3438,7 +3486,7 @@
         <v>23727015.050000001</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44515</v>
       </c>
@@ -3455,7 +3503,7 @@
         <v>23718946.050000001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44515</v>
       </c>
@@ -3472,7 +3520,7 @@
         <v>23223884.050000001</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44515</v>
       </c>
@@ -3489,7 +3537,7 @@
         <v>23067296.050000001</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44515</v>
       </c>
@@ -3506,7 +3554,7 @@
         <v>23014805.050000001</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44515</v>
       </c>
@@ -3523,7 +3571,7 @@
         <v>22971886.050000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44515</v>
       </c>
@@ -3540,7 +3588,7 @@
         <v>22927839.050000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44516</v>
       </c>
@@ -3557,7 +3605,7 @@
         <v>22923734.050000001</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44516</v>
       </c>
@@ -3574,7 +3622,7 @@
         <v>22927839.050000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44516</v>
       </c>
@@ -3591,7 +3639,7 @@
         <v>22896001.050000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44516</v>
       </c>
@@ -3608,7 +3656,7 @@
         <v>22794378.050000001</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44516</v>
       </c>
@@ -3625,7 +3673,7 @@
         <v>22687943.050000001</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44516</v>
       </c>
@@ -3642,7 +3690,7 @@
         <v>22505031.050000001</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44516</v>
       </c>
@@ -3659,7 +3707,7 @@
         <v>22493548.050000001</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44516</v>
       </c>
@@ -3676,7 +3724,7 @@
         <v>22468548.050000001</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44517</v>
       </c>
@@ -3693,7 +3741,7 @@
         <v>22457605.050000001</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44517</v>
       </c>
@@ -3710,7 +3758,7 @@
         <v>22456337.050000001</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44517</v>
       </c>
@@ -3727,7 +3775,7 @@
         <v>22303200.050000001</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44517</v>
       </c>
@@ -3744,7 +3792,7 @@
         <v>22247546.050000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44517</v>
       </c>
@@ -3761,7 +3809,7 @@
         <v>22148143.050000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44517</v>
       </c>
@@ -3778,7 +3826,7 @@
         <v>22052161.050000001</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44517</v>
       </c>
@@ -3795,7 +3843,7 @@
         <v>21945087.050000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44517</v>
       </c>
@@ -3812,7 +3860,7 @@
         <v>21926585.050000001</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44518</v>
       </c>
@@ -3829,7 +3877,7 @@
         <v>21886066.050000001</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44518</v>
       </c>
@@ -3846,7 +3894,7 @@
         <v>21878366.050000001</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44518</v>
       </c>
@@ -3863,7 +3911,7 @@
         <v>21872040.050000001</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44518</v>
       </c>
@@ -3880,7 +3928,7 @@
         <v>21869152.050000001</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44518</v>
       </c>
@@ -3897,7 +3945,7 @@
         <v>21529913.050000001</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44518</v>
       </c>
@@ -3914,7 +3962,7 @@
         <v>21472885.050000001</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44519</v>
       </c>
@@ -3931,7 +3979,7 @@
         <v>21355986.050000001</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44519</v>
       </c>
@@ -3948,7 +3996,7 @@
         <v>21273298.050000001</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44519</v>
       </c>
@@ -3965,7 +4013,7 @@
         <v>21190746.050000001</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44519</v>
       </c>
@@ -3982,7 +4030,7 @@
         <v>21186946.050000001</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44519</v>
       </c>
@@ -3999,7 +4047,7 @@
         <v>21155591.050000001</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44519</v>
       </c>
@@ -4016,7 +4064,7 @@
         <v>31155610.050000001</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44520</v>
       </c>
@@ -4033,7 +4081,7 @@
         <v>31017389.050000001</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44520</v>
       </c>
@@ -4050,7 +4098,7 @@
         <v>31001474.050000001</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44520</v>
       </c>
@@ -4067,7 +4115,7 @@
         <v>28649230.050000001</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44520</v>
       </c>
@@ -4084,7 +4132,7 @@
         <v>28562428.050000001</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44520</v>
       </c>
@@ -4101,7 +4149,7 @@
         <v>28543362.050000001</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44522</v>
       </c>
@@ -4118,7 +4166,7 @@
         <v>28359159.050000001</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44522</v>
       </c>
@@ -4135,7 +4183,7 @@
         <v>28305973.050000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44522</v>
       </c>
@@ -4152,7 +4200,7 @@
         <v>28278370.050000001</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44523</v>
       </c>
@@ -4169,7 +4217,7 @@
         <v>28253037.050000001</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44523</v>
       </c>
@@ -4186,7 +4234,7 @@
         <v>28236357.050000001</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44523</v>
       </c>
@@ -4203,7 +4251,7 @@
         <v>28211191.050000001</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44523</v>
       </c>
@@ -4220,7 +4268,7 @@
         <v>28066141.050000001</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44524</v>
       </c>
@@ -4237,7 +4285,7 @@
         <v>28033595.050000001</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44524</v>
       </c>
@@ -4254,7 +4302,7 @@
         <v>28027514.050000001</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44524</v>
       </c>
@@ -4271,7 +4319,7 @@
         <v>27977443.050000001</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44524</v>
       </c>
@@ -4288,7 +4336,7 @@
         <v>27956934.050000001</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44524</v>
       </c>
@@ -4305,7 +4353,7 @@
         <v>42956958.049999997</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44524</v>
       </c>
@@ -4322,7 +4370,7 @@
         <v>42787883.049999997</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44524</v>
       </c>
@@ -4339,7 +4387,7 @@
         <v>42769943.049999997</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44524</v>
       </c>
@@ -4356,7 +4404,7 @@
         <v>42752923.049999997</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44524</v>
       </c>
@@ -4373,7 +4421,7 @@
         <v>45712249.600000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44524</v>
       </c>
@@ -4390,7 +4438,7 @@
         <v>44732661.600000001</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44525</v>
       </c>
@@ -4407,7 +4455,7 @@
         <v>44428769.600000001</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44525</v>
       </c>
@@ -4424,7 +4472,7 @@
         <v>44359516.600000001</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44525</v>
       </c>
@@ -4441,7 +4489,7 @@
         <v>44340771.600000001</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44525</v>
       </c>
@@ -4458,7 +4506,7 @@
         <v>44188361.600000001</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44525</v>
       </c>
@@ -4475,7 +4523,7 @@
         <v>43946950.600000001</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44526</v>
       </c>
@@ -4492,7 +4540,7 @@
         <v>43869030.600000001</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44526</v>
       </c>
@@ -4509,7 +4557,7 @@
         <v>43638063.600000001</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44526</v>
       </c>
@@ -4526,7 +4574,7 @@
         <v>53638089.600000001</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44526</v>
       </c>
@@ -4543,7 +4591,7 @@
         <v>53497248.600000001</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>44526</v>
       </c>
@@ -4560,7 +4608,7 @@
         <v>52995518.600000001</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>44526</v>
       </c>
@@ -4577,7 +4625,7 @@
         <v>52585624.600000001</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>44526</v>
       </c>
@@ -4594,7 +4642,7 @@
         <v>52363934.600000001</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>44526</v>
       </c>
@@ -4611,7 +4659,7 @@
         <v>51270064.600000001</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>44529</v>
       </c>
@@ -4628,7 +4676,7 @@
         <v>49065598.600000001</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>44529</v>
       </c>
@@ -4645,7 +4693,7 @@
         <v>49079437.600000001</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>44529</v>
       </c>
@@ -4662,7 +4710,7 @@
         <v>99079466.599999994</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>44529</v>
       </c>
@@ -4679,7 +4727,7 @@
         <v>98891748.599999994</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>44529</v>
       </c>
@@ -4696,7 +4744,7 @@
         <v>98811851.599999994</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>44529</v>
       </c>
@@ -4713,7 +4761,7 @@
         <v>98762375.599999994</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>44529</v>
       </c>
@@ -4730,7 +4778,7 @@
         <v>98665683.599999994</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>44529</v>
       </c>
@@ -4747,7 +4795,7 @@
         <v>90538245.599999994</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>44529</v>
       </c>
@@ -4764,7 +4812,7 @@
         <v>87618383.599999994</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>44529</v>
       </c>
@@ -4781,7 +4829,7 @@
         <v>87641330.599999994</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>44530</v>
       </c>
@@ -4798,7 +4846,7 @@
         <v>79564142.599999994</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>44530</v>
       </c>
@@ -4815,7 +4863,7 @@
         <v>79411008.599999994</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>44530</v>
       </c>
@@ -4832,7 +4880,7 @@
         <v>179411038.59999999</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>44530</v>
       </c>
@@ -4849,7 +4897,7 @@
         <v>170669438.59999999</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>44530</v>
       </c>
@@ -4866,7 +4914,7 @@
         <v>290669468.60000002</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>44530</v>
       </c>
@@ -4883,7 +4931,7 @@
         <v>283730300.60000002</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>44530</v>
       </c>
@@ -4900,7 +4948,7 @@
         <v>170458133.59999999</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>44530</v>
       </c>
@@ -4917,7 +4965,7 @@
         <v>170469203.59999999</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>44530</v>
       </c>
@@ -4934,7 +4982,7 @@
         <v>170479960.59999999</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>44530</v>
       </c>
@@ -4951,7 +4999,7 @@
         <v>170489308.59999999</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>44530</v>
       </c>
@@ -4968,7 +5016,7 @@
         <v>170517768.59999999</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>44530</v>
       </c>
@@ -4985,7 +5033,7 @@
         <v>170100723.59999999</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>44530</v>
       </c>
@@ -5002,7 +5050,7 @@
         <v>169774234.59999999</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>44530</v>
       </c>
@@ -5019,7 +5067,7 @@
         <v>162165244.59999999</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>44530</v>
       </c>
@@ -5036,7 +5084,7 @@
         <v>145226146.59999999</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>44530</v>
       </c>
@@ -5053,7 +5101,7 @@
         <v>145260071.59999999</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>44530</v>
       </c>
@@ -5070,7 +5118,7 @@
         <v>142257291.59999999</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>44530</v>
       </c>
@@ -5087,7 +5135,7 @@
         <v>141802219.59999999</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>44530</v>
       </c>
@@ -5104,7 +5152,7 @@
         <v>141804855.59999999</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>44530</v>
       </c>
@@ -5121,7 +5169,7 @@
         <v>141808666.59999999</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>44530</v>
       </c>
@@ -5138,7 +5186,7 @@
         <v>141811880.59999999</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>44530</v>
       </c>
@@ -5155,7 +5203,7 @@
         <v>141821275.59999999</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>44530</v>
       </c>
@@ -5172,7 +5220,7 @@
         <v>141822789.59999999</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>44530</v>
       </c>
@@ -5189,7 +5237,7 @@
         <v>141830401.59999999</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>44530</v>
       </c>
@@ -5206,7 +5254,7 @@
         <v>141831086.59999999</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>44530</v>
       </c>
@@ -5223,7 +5271,7 @@
         <v>141837158.59999999</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>44530</v>
       </c>
@@ -5240,7 +5288,7 @@
         <v>141840940.59999999</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>44530</v>
       </c>
@@ -5257,7 +5305,7 @@
         <v>141844046.59999999</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>44530</v>
       </c>
@@ -5274,7 +5322,7 @@
         <v>141845839.59999999</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>44530</v>
       </c>
@@ -5291,7 +5339,7 @@
         <v>141848620.59999999</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>44531</v>
       </c>
@@ -5308,7 +5356,7 @@
         <v>138801515.59999999</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>44531</v>
       </c>
@@ -5325,7 +5373,7 @@
         <v>130407358.59999999</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>44531</v>
       </c>
@@ -5342,7 +5390,7 @@
         <v>128895343.59999999</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>44531</v>
       </c>
@@ -5359,7 +5407,7 @@
         <v>128726351.59999999</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>44531</v>
       </c>
@@ -5376,7 +5424,7 @@
         <v>128168674.59999999</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>44531</v>
       </c>
@@ -5393,7 +5441,7 @@
         <v>123393501.59999999</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>44531</v>
       </c>
@@ -5410,7 +5458,7 @@
         <v>123407504.59999999</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>44531</v>
       </c>
@@ -5427,7 +5475,7 @@
         <v>114568592.59999999</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>44531</v>
       </c>
@@ -5444,7 +5492,7 @@
         <v>114551644.59999999</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>44531</v>
       </c>
@@ -5461,7 +5509,7 @@
         <v>114356582.59999999</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>44531</v>
       </c>
@@ -5478,7 +5526,7 @@
         <v>109834747.59999999</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>44531</v>
       </c>
@@ -5495,7 +5543,7 @@
         <v>109624683.59999999</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>44531</v>
       </c>
@@ -5512,7 +5560,7 @@
         <v>109563911.59999999</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>44531</v>
       </c>
@@ -5529,7 +5577,7 @@
         <v>108669836.59999999</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>44532</v>
       </c>
@@ -5546,7 +5594,7 @@
         <v>99981194.599999994</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>44532</v>
       </c>
@@ -5563,7 +5611,7 @@
         <v>99967856.599999994</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>44532</v>
       </c>
@@ -5580,7 +5628,7 @@
         <v>98122366.599999994</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>44532</v>
       </c>
@@ -5597,7 +5645,7 @@
         <v>97985615.599999994</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>44532</v>
       </c>
@@ -5614,7 +5662,7 @@
         <v>96155770.599999994</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>44532</v>
       </c>
@@ -5631,7 +5679,7 @@
         <v>96127194.599999994</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>44532</v>
       </c>
@@ -5648,7 +5696,7 @@
         <v>94892230.599999994</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>44532</v>
       </c>
@@ -5665,7 +5713,7 @@
         <v>94532761.599999994</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>44532</v>
       </c>
@@ -5682,7 +5730,7 @@
         <v>94561319.599999994</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>44533</v>
       </c>
@@ -5699,7 +5747,7 @@
         <v>90835867.599999994</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>44533</v>
       </c>
@@ -5716,7 +5764,7 @@
         <v>90743867.599999994</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>44533</v>
       </c>
@@ -5733,7 +5781,7 @@
         <v>90722451.599999994</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>44533</v>
       </c>
@@ -5750,7 +5798,7 @@
         <v>90610300.599999994</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>44533</v>
       </c>
@@ -5767,7 +5815,7 @@
         <v>90030719.599999994</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>44533</v>
       </c>
@@ -5784,7 +5832,7 @@
         <v>89903245.599999994</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>44533</v>
       </c>
@@ -5801,7 +5849,7 @@
         <v>89667027.599999994</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>44533</v>
       </c>
@@ -5818,7 +5866,7 @@
         <v>89052419.599999994</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>44533</v>
       </c>
@@ -5835,7 +5883,7 @@
         <v>88986730.599999994</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>44533</v>
       </c>
@@ -5852,7 +5900,7 @@
         <v>88334957.599999994</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>44533</v>
       </c>
@@ -5869,7 +5917,7 @@
         <v>84492876.599999994</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>44533</v>
       </c>
@@ -5886,7 +5934,7 @@
         <v>84350285.599999994</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>44534</v>
       </c>
@@ -5903,7 +5951,7 @@
         <v>83178113.599999994</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>44534</v>
       </c>
@@ -5920,7 +5968,7 @@
         <v>78341764.599999994</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>44534</v>
       </c>
@@ -5937,7 +5985,7 @@
         <v>78299986.599999994</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>44534</v>
       </c>
@@ -5954,7 +6002,7 @@
         <v>78219089.599999994</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>44534</v>
       </c>
@@ -5971,7 +6019,7 @@
         <v>78071830.599999994</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>44534</v>
       </c>
@@ -5988,7 +6036,7 @@
         <v>80214476.599999994</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>44534</v>
       </c>
@@ -6005,7 +6053,7 @@
         <v>82118387.599999994</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>44534</v>
       </c>
@@ -6022,7 +6070,7 @@
         <v>82048010.599999994</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>44534</v>
       </c>
@@ -6039,7 +6087,7 @@
         <v>73127496.599999994</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>44534</v>
       </c>
@@ -6056,7 +6104,7 @@
         <v>73027656.599999994</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>44534</v>
       </c>
@@ -6073,7 +6121,7 @@
         <v>72993371.599999994</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>44534</v>
       </c>
@@ -6090,7 +6138,7 @@
         <v>72034503.599999994</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>44534</v>
       </c>
@@ -6107,7 +6155,7 @@
         <v>72044002.599999994</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>44534</v>
       </c>
@@ -6124,7 +6172,7 @@
         <v>73451835.599999994</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>44535</v>
       </c>
@@ -6141,7 +6189,7 @@
         <v>71057710.599999994</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>44536</v>
       </c>
@@ -6158,7 +6206,7 @@
         <v>70921408.599999994</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>44536</v>
       </c>
@@ -6175,7 +6223,7 @@
         <v>70924259.599999994</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>44536</v>
       </c>
@@ -6192,7 +6240,7 @@
         <v>71184466.640000001</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>44536</v>
       </c>
@@ -6209,7 +6257,7 @@
         <v>70691166.640000001</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>44536</v>
       </c>
@@ -6226,7 +6274,7 @@
         <v>70606148.640000001</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>44536</v>
       </c>
@@ -6243,7 +6291,7 @@
         <v>74187944.640000001</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>44536</v>
       </c>
@@ -6260,7 +6308,7 @@
         <v>77550016.079999998</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>44536</v>
       </c>
@@ -6277,7 +6325,7 @@
         <v>81522882.079999998</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>44536</v>
       </c>
@@ -6294,7 +6342,7 @@
         <v>89059016.200000003</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>44536</v>
       </c>
@@ -6311,7 +6359,7 @@
         <v>89162425.200000003</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>44536</v>
       </c>
@@ -6328,7 +6376,7 @@
         <v>89215648.200000003</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>44536</v>
       </c>
@@ -6345,7 +6393,7 @@
         <v>96240281.200000003</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>44536</v>
       </c>
@@ -6362,7 +6410,7 @@
         <v>96325889.200000003</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>44536</v>
       </c>
@@ -6379,7 +6427,7 @@
         <v>96508381.200000003</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>44536</v>
       </c>
@@ -6396,7 +6444,7 @@
         <v>113537099.2</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>44536</v>
       </c>
@@ -6413,7 +6461,7 @@
         <v>116874257.3</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>44536</v>
       </c>
@@ -6430,7 +6478,7 @@
         <v>124060898.62</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>44536</v>
       </c>
@@ -6447,7 +6495,7 @@
         <v>131992381.62</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>44536</v>
       </c>
@@ -6464,7 +6512,7 @@
         <v>111992375.62</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>44536</v>
       </c>
@@ -6481,7 +6529,7 @@
         <v>112256167.62</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>44536</v>
       </c>
@@ -6498,7 +6546,7 @@
         <v>116088895.62</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>44536</v>
       </c>
@@ -6515,7 +6563,7 @@
         <v>119279872.62</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>44536</v>
       </c>
@@ -6532,7 +6580,7 @@
         <v>125665339.26000001</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>44536</v>
       </c>
@@ -6549,7 +6597,7 @@
         <v>135157180.25999999</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>44536</v>
       </c>
@@ -6566,7 +6614,7 @@
         <v>143126166.25999999</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>44536</v>
       </c>
@@ -6583,7 +6631,7 @@
         <v>143107729.25999999</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>44536</v>
       </c>
@@ -6600,7 +6648,7 @@
         <v>143094923.25999999</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>44536</v>
       </c>
@@ -6617,7 +6665,7 @@
         <v>143093152.25999999</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>44536</v>
       </c>
@@ -6634,7 +6682,7 @@
         <v>141381355.25999999</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>44537</v>
       </c>
@@ -6651,7 +6699,7 @@
         <v>139399882.25999999</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>44537</v>
       </c>
@@ -6668,7 +6716,7 @@
         <v>139207491.25999999</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>44537</v>
       </c>
@@ -6685,7 +6733,7 @@
         <v>139699981.25999999</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>44537</v>
       </c>
@@ -6702,7 +6750,7 @@
         <v>138297686.25999999</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>44537</v>
       </c>
@@ -6719,7 +6767,7 @@
         <v>138289819.25999999</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>44537</v>
       </c>
@@ -6736,7 +6784,7 @@
         <v>58289812.259999998</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>44537</v>
       </c>
@@ -6753,7 +6801,7 @@
         <v>58144527.259999998</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>44537</v>
       </c>
@@ -6770,7 +6818,7 @@
         <v>57913712.259999998</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>44537</v>
       </c>
@@ -6787,7 +6835,7 @@
         <v>58055825.259999998</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>44537</v>
       </c>
@@ -6804,7 +6852,7 @@
         <v>58170848.259999998</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>44537</v>
       </c>
@@ -6821,7 +6869,7 @@
         <v>59017196.259999998</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>44537</v>
       </c>
@@ -6838,7 +6886,7 @@
         <v>57054994.259999998</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>44537</v>
       </c>
@@ -6855,7 +6903,7 @@
         <v>56906176.259999998</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>44537</v>
       </c>
@@ -6872,7 +6920,7 @@
         <v>56891615.259999998</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>44537</v>
       </c>
@@ -6889,7 +6937,7 @@
         <v>56894246.259999998</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>44537</v>
       </c>
@@ -6906,7 +6954,7 @@
         <v>57281339.020000003</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>44538</v>
       </c>
@@ -6923,7 +6971,7 @@
         <v>57127981.020000003</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>44538</v>
       </c>
@@ -6940,7 +6988,7 @@
         <v>56955482.020000003</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>44538</v>
       </c>
@@ -6957,7 +7005,7 @@
         <v>56157936.020000003</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>44538</v>
       </c>
@@ -6974,7 +7022,7 @@
         <v>55771069.020000003</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>44538</v>
       </c>
@@ -6991,7 +7039,7 @@
         <v>55755884.020000003</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>44538</v>
       </c>
@@ -7008,7 +7056,7 @@
         <v>52591047.020000003</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>44538</v>
       </c>
@@ -7025,7 +7073,7 @@
         <v>52103500.020000003</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>44538</v>
       </c>
@@ -7042,7 +7090,7 @@
         <v>52058319.020000003</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>44538</v>
       </c>
@@ -7059,7 +7107,7 @@
         <v>56858667.020000003</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>44539</v>
       </c>
@@ -7076,7 +7124,7 @@
         <v>55510978.020000003</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>44539</v>
       </c>
@@ -7093,7 +7141,7 @@
         <v>55735377.520000003</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>44539</v>
       </c>
@@ -7110,7 +7158,7 @@
         <v>55699277.520000003</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>44539</v>
       </c>
@@ -7127,7 +7175,7 @@
         <v>44640870.520000003</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>44539</v>
       </c>
@@ -7144,7 +7192,7 @@
         <v>42639680.520000003</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>44539</v>
       </c>
@@ -7161,7 +7209,7 @@
         <v>42627508.520000003</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>44539</v>
       </c>
@@ -7178,7 +7226,7 @@
         <v>42637070.520000003</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>44539</v>
       </c>
@@ -7195,7 +7243,7 @@
         <v>42647775.520000003</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>44539</v>
       </c>
@@ -7212,7 +7260,7 @@
         <v>42650497.520000003</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>44539</v>
       </c>
@@ -7229,7 +7277,7 @@
         <v>42651496.520000003</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>44539</v>
       </c>
@@ -7246,7 +7294,7 @@
         <v>42662512.520000003</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>44539</v>
       </c>
@@ -7263,7 +7311,7 @@
         <v>42670367.520000003</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>44539</v>
       </c>
@@ -7280,7 +7328,7 @@
         <v>42678134.520000003</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>44539</v>
       </c>
@@ -7297,7 +7345,7 @@
         <v>42679698.520000003</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>44539</v>
       </c>
@@ -7314,7 +7362,7 @@
         <v>42681135.520000003</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>44539</v>
       </c>
@@ -7331,7 +7379,7 @@
         <v>42690042.520000003</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>44539</v>
       </c>
@@ -7348,7 +7396,7 @@
         <v>42698572.520000003</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>44539</v>
       </c>
@@ -7365,7 +7413,7 @@
         <v>42705745.520000003</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>44539</v>
       </c>
@@ -7382,7 +7430,7 @@
         <v>42712190.520000003</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>44539</v>
       </c>
@@ -7399,7 +7447,7 @@
         <v>42714788.520000003</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>44539</v>
       </c>
@@ -7416,7 +7464,7 @@
         <v>42722519.520000003</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>44539</v>
       </c>
@@ -7433,7 +7481,7 @@
         <v>42731451.520000003</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>44539</v>
       </c>
@@ -7450,7 +7498,7 @@
         <v>42740530.520000003</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>44539</v>
       </c>
@@ -7467,7 +7515,7 @@
         <v>42749609.520000003</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>44539</v>
       </c>
@@ -7484,7 +7532,7 @@
         <v>42756300.520000003</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>44539</v>
       </c>
@@ -7501,7 +7549,7 @@
         <v>42757336.520000003</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>44539</v>
       </c>
@@ -7518,7 +7566,7 @@
         <v>42768192.520000003</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>44539</v>
       </c>
@@ -7535,7 +7583,7 @@
         <v>42772157.520000003</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>44539</v>
       </c>
@@ -7552,7 +7600,7 @@
         <v>42775123.520000003</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>44539</v>
       </c>
@@ -7569,7 +7617,7 @@
         <v>42782805.520000003</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>44539</v>
       </c>
@@ -7586,7 +7634,7 @@
         <v>42785440.520000003</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>44539</v>
       </c>
@@ -7603,7 +7651,7 @@
         <v>42790864.520000003</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>44539</v>
       </c>
@@ -7620,7 +7668,7 @@
         <v>42799943.520000003</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>44539</v>
       </c>
@@ -7637,7 +7685,7 @@
         <v>42806163.520000003</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>44539</v>
       </c>
@@ -7654,7 +7702,7 @@
         <v>42809269.520000003</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>44539</v>
       </c>
@@ -7671,7 +7719,7 @@
         <v>42821987.520000003</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>44539</v>
       </c>
@@ -7688,7 +7736,7 @@
         <v>42832027.520000003</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>44539</v>
       </c>
@@ -7705,7 +7753,7 @@
         <v>42835133.520000003</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>44539</v>
       </c>
@@ -7722,7 +7770,7 @@
         <v>42842133.520000003</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>44539</v>
       </c>
@@ -7739,7 +7787,7 @@
         <v>42843182.520000003</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>44539</v>
       </c>
@@ -7756,7 +7804,7 @@
         <v>42853602.520000003</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>44539</v>
       </c>
@@ -7773,7 +7821,7 @@
         <v>42856574.520000003</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>44539</v>
       </c>
@@ -7790,7 +7838,7 @@
         <v>41827259.520000003</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>44539</v>
       </c>
@@ -7807,7 +7855,7 @@
         <v>41747118.520000003</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>44539</v>
       </c>
@@ -7824,7 +7872,7 @@
         <v>41133825.520000003</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>44539</v>
       </c>
@@ -7841,7 +7889,7 @@
         <v>41123825.520000003</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>44539</v>
       </c>
@@ -7858,7 +7906,7 @@
         <v>41109705.520000003</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>44540</v>
       </c>
@@ -7875,7 +7923,7 @@
         <v>40064906.520000003</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>44540</v>
       </c>
@@ -7892,7 +7940,7 @@
         <v>39633940.520000003</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>44540</v>
       </c>
@@ -7909,7 +7957,7 @@
         <v>39564338.520000003</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>44540</v>
       </c>
@@ -7926,7 +7974,7 @@
         <v>39424615.520000003</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>44540</v>
       </c>
@@ -7943,7 +7991,7 @@
         <v>38111607.520000003</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>44540</v>
       </c>
@@ -7960,7 +8008,7 @@
         <v>38063789.520000003</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>44541</v>
       </c>
@@ -7977,7 +8025,7 @@
         <v>37835099.520000003</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>44543</v>
       </c>
@@ -7994,7 +8042,7 @@
         <v>37855689.100000001</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>44543</v>
       </c>
@@ -8011,32 +8059,32 @@
         <v>37895725.359999999</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B361" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B362" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B363" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B364" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B365" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B366" t="s">
         <v>370</v>
       </c>
